--- a/data/pca/factorExposure/factorExposure_2014-09-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.00389704964045039</v>
+        <v>0.0185973975684932</v>
       </c>
       <c r="C2">
-        <v>0.1196234272160676</v>
+        <v>-0.07012979657707888</v>
       </c>
       <c r="D2">
-        <v>0.0312086146829367</v>
+        <v>0.03231342439964628</v>
       </c>
       <c r="E2">
-        <v>0.2242353616126855</v>
+        <v>-0.0404538388840267</v>
       </c>
       <c r="F2">
-        <v>0.0426149240328656</v>
+        <v>-0.1536987166368508</v>
       </c>
       <c r="G2">
-        <v>0.0524409793052814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.003213772046264646</v>
+      </c>
+      <c r="H2">
+        <v>0.05866615986050945</v>
+      </c>
+      <c r="I2">
+        <v>-0.02179521671467521</v>
+      </c>
+      <c r="J2">
+        <v>0.02578154289918251</v>
+      </c>
+      <c r="K2">
+        <v>0.1556096679276595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01506408157150824</v>
+        <v>0.01758640479136151</v>
       </c>
       <c r="C4">
-        <v>0.165149154209457</v>
+        <v>-0.1460857169577153</v>
       </c>
       <c r="D4">
-        <v>0.03397829674490469</v>
+        <v>0.06398731632135569</v>
       </c>
       <c r="E4">
-        <v>0.05365996883385781</v>
+        <v>0.03578359974289868</v>
       </c>
       <c r="F4">
-        <v>-0.06524432423354884</v>
+        <v>-0.06246219816794945</v>
       </c>
       <c r="G4">
-        <v>-0.03396220158094963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04043762347862551</v>
+      </c>
+      <c r="H4">
+        <v>0.06077043700628577</v>
+      </c>
+      <c r="I4">
+        <v>-0.08800764404425181</v>
+      </c>
+      <c r="J4">
+        <v>0.007247518907679487</v>
+      </c>
+      <c r="K4">
+        <v>0.183350855639351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.01978226966282183</v>
+        <v>0.0371374711193163</v>
       </c>
       <c r="C6">
-        <v>0.08121512738839984</v>
+        <v>-0.0859022489676719</v>
       </c>
       <c r="D6">
-        <v>0.05554495425166026</v>
+        <v>0.02599516136519775</v>
       </c>
       <c r="E6">
-        <v>0.05628077674091572</v>
+        <v>-0.03685453853349573</v>
       </c>
       <c r="F6">
-        <v>-0.007304013663487851</v>
+        <v>-0.03583454957327312</v>
       </c>
       <c r="G6">
-        <v>-0.04562370392758823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04716283443499741</v>
+      </c>
+      <c r="H6">
+        <v>0.03319130005978756</v>
+      </c>
+      <c r="I6">
+        <v>0.01386878333060904</v>
+      </c>
+      <c r="J6">
+        <v>-0.08094431846742525</v>
+      </c>
+      <c r="K6">
+        <v>0.07962600640116146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0004260048916421047</v>
+        <v>0.01791216117984628</v>
       </c>
       <c r="C7">
-        <v>0.0639628155993746</v>
+        <v>-0.07002152726768152</v>
       </c>
       <c r="D7">
-        <v>0.03587811883394612</v>
+        <v>0.03002426820988968</v>
       </c>
       <c r="E7">
-        <v>0.01346697511778832</v>
+        <v>0.0177709168306791</v>
       </c>
       <c r="F7">
-        <v>-0.02737344762508633</v>
+        <v>0.0005748032047267397</v>
       </c>
       <c r="G7">
-        <v>-0.02916106542224585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04167423854229176</v>
+      </c>
+      <c r="H7">
+        <v>0.07987030564805118</v>
+      </c>
+      <c r="I7">
+        <v>-0.04815145153696777</v>
+      </c>
+      <c r="J7">
+        <v>-0.002388097068243745</v>
+      </c>
+      <c r="K7">
+        <v>0.02488166996285273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01242633514564609</v>
+        <v>0.0008585261869147166</v>
       </c>
       <c r="C8">
-        <v>0.06619926945482794</v>
+        <v>-0.06088612288427204</v>
       </c>
       <c r="D8">
-        <v>0.0433647715775096</v>
+        <v>0.0453218739110921</v>
       </c>
       <c r="E8">
-        <v>0.06237241519063826</v>
+        <v>-0.002086691243122574</v>
       </c>
       <c r="F8">
-        <v>-0.01361878466159171</v>
+        <v>-0.06132020451929841</v>
       </c>
       <c r="G8">
-        <v>0.01607219868333242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01602623543435772</v>
+      </c>
+      <c r="H8">
+        <v>0.05128543125031847</v>
+      </c>
+      <c r="I8">
+        <v>-0.03562184084023539</v>
+      </c>
+      <c r="J8">
+        <v>-0.01079292146901452</v>
+      </c>
+      <c r="K8">
+        <v>-0.01403429407214305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.00743281071970031</v>
+        <v>0.01327460975569797</v>
       </c>
       <c r="C9">
-        <v>0.1178911817276173</v>
+        <v>-0.1031519027190668</v>
       </c>
       <c r="D9">
-        <v>0.04691879837774589</v>
+        <v>0.04064371529236953</v>
       </c>
       <c r="E9">
-        <v>0.01475854505399404</v>
+        <v>0.01046813974283766</v>
       </c>
       <c r="F9">
-        <v>-0.008034873427498455</v>
+        <v>-0.03567347242814498</v>
       </c>
       <c r="G9">
-        <v>-0.03978134738555508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02454301838064706</v>
+      </c>
+      <c r="H9">
+        <v>0.06828759115466296</v>
+      </c>
+      <c r="I9">
+        <v>-0.08710235905644506</v>
+      </c>
+      <c r="J9">
+        <v>-0.003191778742634208</v>
+      </c>
+      <c r="K9">
+        <v>0.08547646210517304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2720379382661652</v>
+        <v>0.2493423790037853</v>
       </c>
       <c r="C10">
-        <v>-0.06902499208744606</v>
+        <v>0.09058628120682356</v>
       </c>
       <c r="D10">
-        <v>-0.02362707827213415</v>
+        <v>-0.006968533553767856</v>
       </c>
       <c r="E10">
-        <v>-0.0209154871357453</v>
+        <v>-0.01342222672816122</v>
       </c>
       <c r="F10">
-        <v>-0.01124996799329073</v>
+        <v>0.008224265228304486</v>
       </c>
       <c r="G10">
-        <v>-0.01682082740705066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02859105355789527</v>
+      </c>
+      <c r="H10">
+        <v>0.02804290239278003</v>
+      </c>
+      <c r="I10">
+        <v>-0.01870611361534488</v>
+      </c>
+      <c r="J10">
+        <v>0.1376157012646965</v>
+      </c>
+      <c r="K10">
+        <v>-0.07982257543277027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003919285404677098</v>
+        <v>0.01663589435340567</v>
       </c>
       <c r="C11">
-        <v>0.06567627521127388</v>
+        <v>-0.0819175487795088</v>
       </c>
       <c r="D11">
-        <v>0.02898447101495982</v>
+        <v>0.03775084565887914</v>
       </c>
       <c r="E11">
-        <v>-0.02290967343736647</v>
+        <v>0.005139164587563152</v>
       </c>
       <c r="F11">
-        <v>-0.006718377990521047</v>
+        <v>0.01092040939957147</v>
       </c>
       <c r="G11">
-        <v>-0.04141818046604415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01390720603957379</v>
+      </c>
+      <c r="H11">
+        <v>0.02129933185360148</v>
+      </c>
+      <c r="I11">
+        <v>-0.02139289523789543</v>
+      </c>
+      <c r="J11">
+        <v>-0.02968766953276262</v>
+      </c>
+      <c r="K11">
+        <v>-0.005990090918203033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.001278783276375879</v>
+        <v>0.01540872596900929</v>
       </c>
       <c r="C12">
-        <v>0.04390284952084714</v>
+        <v>-0.05444728974495862</v>
       </c>
       <c r="D12">
-        <v>0.03485333147265884</v>
+        <v>0.02508175318430094</v>
       </c>
       <c r="E12">
-        <v>-0.01709002057389149</v>
+        <v>-0.0186448438666186</v>
       </c>
       <c r="F12">
-        <v>0.02396386471758384</v>
+        <v>0.008039222378177568</v>
       </c>
       <c r="G12">
-        <v>-0.05221000299939795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02990149594549323</v>
+      </c>
+      <c r="H12">
+        <v>0.01271518159922153</v>
+      </c>
+      <c r="I12">
+        <v>-0.02561507030020376</v>
+      </c>
+      <c r="J12">
+        <v>-0.01862024592947314</v>
+      </c>
+      <c r="K12">
+        <v>0.003502575276425226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.0067607419790502</v>
+        <v>0.002979036428043307</v>
       </c>
       <c r="C13">
-        <v>0.1242761079566034</v>
+        <v>-0.1159861267191389</v>
       </c>
       <c r="D13">
-        <v>0.07765992468918326</v>
+        <v>0.04052955075441771</v>
       </c>
       <c r="E13">
-        <v>0.05254541615269834</v>
+        <v>-0.1028271106149671</v>
       </c>
       <c r="F13">
-        <v>0.06633288115957986</v>
+        <v>-0.1246279725749054</v>
       </c>
       <c r="G13">
-        <v>-0.15872155268689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1475720082626948</v>
+      </c>
+      <c r="H13">
+        <v>0.1268089248737882</v>
+      </c>
+      <c r="I13">
+        <v>0.005134675585700576</v>
+      </c>
+      <c r="J13">
+        <v>0.2114143100986254</v>
+      </c>
+      <c r="K13">
+        <v>-0.2442672584364924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.007019921940103689</v>
+        <v>0.01958073491690647</v>
       </c>
       <c r="C14">
-        <v>0.07369555840494343</v>
+        <v>-0.07418382111907276</v>
       </c>
       <c r="D14">
-        <v>0.04095720230875293</v>
+        <v>0.04758061278259496</v>
       </c>
       <c r="E14">
-        <v>0.02642423076339868</v>
+        <v>-0.04290308777882573</v>
       </c>
       <c r="F14">
-        <v>0.03098794128392409</v>
+        <v>-0.01068855300221136</v>
       </c>
       <c r="G14">
-        <v>-0.08211626108525279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.1114756824663934</v>
+      </c>
+      <c r="H14">
+        <v>0.1671236725270723</v>
+      </c>
+      <c r="I14">
+        <v>-0.08913247716964796</v>
+      </c>
+      <c r="J14">
+        <v>-0.01290921878176682</v>
+      </c>
+      <c r="K14">
+        <v>-0.1249357382903558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002118820415276206</v>
+        <v>0.003913483280155585</v>
       </c>
       <c r="C15">
-        <v>0.09794060682201716</v>
+        <v>-0.08236263677980457</v>
       </c>
       <c r="D15">
-        <v>0.047382452547421</v>
+        <v>0.03368591870518466</v>
       </c>
       <c r="E15">
-        <v>0.03974495461685831</v>
+        <v>0.009840254221541275</v>
       </c>
       <c r="F15">
-        <v>-0.008525872729264451</v>
+        <v>-0.02968364956263159</v>
       </c>
       <c r="G15">
-        <v>-0.03899600723819804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03786482299243887</v>
+      </c>
+      <c r="H15">
+        <v>0.07466665512489636</v>
+      </c>
+      <c r="I15">
+        <v>-0.05884488468808944</v>
+      </c>
+      <c r="J15">
+        <v>-0.02326174625686141</v>
+      </c>
+      <c r="K15">
+        <v>-0.06922519618765249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.006931998356023423</v>
+        <v>0.01535725276031178</v>
       </c>
       <c r="C16">
-        <v>0.05561573565471913</v>
+        <v>-0.06145965793287409</v>
       </c>
       <c r="D16">
-        <v>0.02548932727316079</v>
+        <v>0.02650088733529447</v>
       </c>
       <c r="E16">
-        <v>-0.01369365365350886</v>
+        <v>0.002033890047258494</v>
       </c>
       <c r="F16">
-        <v>0.007834879415971406</v>
+        <v>0.005803643986427311</v>
       </c>
       <c r="G16">
-        <v>-0.02633583006688339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01131572661534072</v>
+      </c>
+      <c r="H16">
+        <v>0.01386988575195056</v>
+      </c>
+      <c r="I16">
+        <v>-0.01772534729807596</v>
+      </c>
+      <c r="J16">
+        <v>-0.02112907726759399</v>
+      </c>
+      <c r="K16">
+        <v>0.009247191553327164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009056310097848103</v>
+        <v>0.01507945330508858</v>
       </c>
       <c r="C20">
-        <v>0.08573736446473065</v>
+        <v>-0.08529478275466189</v>
       </c>
       <c r="D20">
-        <v>0.03836704481636392</v>
+        <v>0.02554090360303799</v>
       </c>
       <c r="E20">
-        <v>-0.02683363189035765</v>
+        <v>0.02187512201021231</v>
       </c>
       <c r="F20">
-        <v>0.003151036207285481</v>
+        <v>0.01005310173435076</v>
       </c>
       <c r="G20">
-        <v>-0.09836690631773233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04758683265362434</v>
+      </c>
+      <c r="H20">
+        <v>0.05807995504705659</v>
+      </c>
+      <c r="I20">
+        <v>-0.03760179427493339</v>
+      </c>
+      <c r="J20">
+        <v>-0.02101055507423049</v>
+      </c>
+      <c r="K20">
+        <v>0.00819855912981126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.001162157481746133</v>
+        <v>0.01234832168103294</v>
       </c>
       <c r="C21">
-        <v>0.09026033052916137</v>
+        <v>-0.06974420221422883</v>
       </c>
       <c r="D21">
-        <v>-0.01136721782434352</v>
+        <v>0.01722973743585247</v>
       </c>
       <c r="E21">
-        <v>0.03284680281515669</v>
+        <v>-0.08741962849782214</v>
       </c>
       <c r="F21">
-        <v>0.05544948225770357</v>
+        <v>-0.03160507893685999</v>
       </c>
       <c r="G21">
-        <v>-0.01961931477039533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03620382969584788</v>
+      </c>
+      <c r="H21">
+        <v>0.1421511857387508</v>
+      </c>
+      <c r="I21">
+        <v>-0.03189792243047285</v>
+      </c>
+      <c r="J21">
+        <v>0.01862193216279053</v>
+      </c>
+      <c r="K21">
+        <v>-0.03149479142745288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01172717221572947</v>
+        <v>0.004497255769324519</v>
       </c>
       <c r="C22">
-        <v>0.2455821448493813</v>
+        <v>-0.1732801342624232</v>
       </c>
       <c r="D22">
-        <v>-0.07583696751250604</v>
+        <v>0.01808458512434395</v>
       </c>
       <c r="E22">
-        <v>0.3109133276006306</v>
+        <v>0.1457097329294192</v>
       </c>
       <c r="F22">
-        <v>-0.3085302895237929</v>
+        <v>-0.5101740820618614</v>
       </c>
       <c r="G22">
-        <v>0.06041408819621423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.04054783609687247</v>
+      </c>
+      <c r="H22">
+        <v>-0.2649134848388031</v>
+      </c>
+      <c r="I22">
+        <v>0.1776173401442838</v>
+      </c>
+      <c r="J22">
+        <v>-0.009554075724446333</v>
+      </c>
+      <c r="K22">
+        <v>-0.1783576468821439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01314402423038069</v>
+        <v>0.009679450155587636</v>
       </c>
       <c r="C23">
-        <v>0.2482564819257013</v>
+        <v>-0.1770004540915326</v>
       </c>
       <c r="D23">
-        <v>-0.08036171799097309</v>
+        <v>0.01784943592484508</v>
       </c>
       <c r="E23">
-        <v>0.3057713586592979</v>
+        <v>0.1397505151885879</v>
       </c>
       <c r="F23">
-        <v>-0.3036724956707522</v>
+        <v>-0.4958755151331449</v>
       </c>
       <c r="G23">
-        <v>0.06047052115979513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.03710061513600471</v>
+      </c>
+      <c r="H23">
+        <v>-0.2501494506295279</v>
+      </c>
+      <c r="I23">
+        <v>0.1594907929376452</v>
+      </c>
+      <c r="J23">
+        <v>-0.01364490626408419</v>
+      </c>
+      <c r="K23">
+        <v>-0.1665273370998291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.002089673734109015</v>
+        <v>0.01622239480374277</v>
       </c>
       <c r="C24">
-        <v>0.05271839819352092</v>
+        <v>-0.06475578565661461</v>
       </c>
       <c r="D24">
-        <v>0.04070080971891087</v>
+        <v>0.03968744504867163</v>
       </c>
       <c r="E24">
-        <v>-0.01874274115982134</v>
+        <v>0.004062535415127277</v>
       </c>
       <c r="F24">
-        <v>2.703270516013521e-05</v>
+        <v>0.006557531305917513</v>
       </c>
       <c r="G24">
-        <v>-0.05251998390794695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02918035571917221</v>
+      </c>
+      <c r="H24">
+        <v>0.02753500476522334</v>
+      </c>
+      <c r="I24">
+        <v>-0.02556549712354777</v>
+      </c>
+      <c r="J24">
+        <v>-0.02369405871236459</v>
+      </c>
+      <c r="K24">
+        <v>0.0007384349951553817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.003413533493952211</v>
+        <v>0.02010069925278553</v>
       </c>
       <c r="C25">
-        <v>0.06319479218314578</v>
+        <v>-0.06809824167021571</v>
       </c>
       <c r="D25">
-        <v>0.02130091992801781</v>
+        <v>0.03274711465741583</v>
       </c>
       <c r="E25">
-        <v>-0.02166170154882664</v>
+        <v>0.004958549198744285</v>
       </c>
       <c r="F25">
-        <v>0.003098890089412679</v>
+        <v>0.004538428884685257</v>
       </c>
       <c r="G25">
-        <v>-0.05345685439343072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0230620082344893</v>
+      </c>
+      <c r="H25">
+        <v>0.01989323380158305</v>
+      </c>
+      <c r="I25">
+        <v>-0.03196182212466679</v>
+      </c>
+      <c r="J25">
+        <v>-0.008895975374436826</v>
+      </c>
+      <c r="K25">
+        <v>-0.01310231605972318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.000302785308456682</v>
+        <v>0.02235531302195764</v>
       </c>
       <c r="C26">
-        <v>0.04856179906237326</v>
+        <v>-0.05657355165237245</v>
       </c>
       <c r="D26">
-        <v>0.06833813508725259</v>
+        <v>0.06206972195869741</v>
       </c>
       <c r="E26">
-        <v>0.001924630282410593</v>
+        <v>0.00607865107391642</v>
       </c>
       <c r="F26">
-        <v>0.03643196964929506</v>
+        <v>0.01245804974287855</v>
       </c>
       <c r="G26">
-        <v>-0.03887467462993511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01412640934713766</v>
+      </c>
+      <c r="H26">
+        <v>0.0844672593946539</v>
+      </c>
+      <c r="I26">
+        <v>-0.07346757043732108</v>
+      </c>
+      <c r="J26">
+        <v>-0.03798848110258311</v>
+      </c>
+      <c r="K26">
+        <v>0.1289554453215604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3651772907415461</v>
+        <v>0.3128791144811776</v>
       </c>
       <c r="C28">
-        <v>-0.07858200112807706</v>
+        <v>0.1075477306016503</v>
       </c>
       <c r="D28">
-        <v>-0.01532392500035805</v>
+        <v>-0.03392391671835063</v>
       </c>
       <c r="E28">
-        <v>-0.04951430213522872</v>
+        <v>-0.002533553395368624</v>
       </c>
       <c r="F28">
-        <v>0.05369804801962622</v>
+        <v>-0.05093287256941519</v>
       </c>
       <c r="G28">
-        <v>0.07939088981212013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.104723374222053</v>
+      </c>
+      <c r="H28">
+        <v>0.07882226830948193</v>
+      </c>
+      <c r="I28">
+        <v>-0.007146486550841135</v>
+      </c>
+      <c r="J28">
+        <v>0.2107196350652126</v>
+      </c>
+      <c r="K28">
+        <v>0.02387239917330561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.006955027288805972</v>
+        <v>0.01536538440924897</v>
       </c>
       <c r="C29">
-        <v>0.07937733910582861</v>
+        <v>-0.08322120940218315</v>
       </c>
       <c r="D29">
-        <v>0.04653968076588819</v>
+        <v>0.05095191860804024</v>
       </c>
       <c r="E29">
-        <v>0.01327865725674531</v>
+        <v>-0.04656133743295936</v>
       </c>
       <c r="F29">
-        <v>0.03373720631301381</v>
+        <v>-0.01460913410515224</v>
       </c>
       <c r="G29">
-        <v>-0.1189761345682921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1620653744213042</v>
+      </c>
+      <c r="H29">
+        <v>0.2284631583082957</v>
+      </c>
+      <c r="I29">
+        <v>-0.1408388429429934</v>
+      </c>
+      <c r="J29">
+        <v>0.007117427359288381</v>
+      </c>
+      <c r="K29">
+        <v>-0.1958728619898077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01826216960491693</v>
+        <v>0.03146174773026995</v>
       </c>
       <c r="C30">
-        <v>0.167776730603227</v>
+        <v>-0.1430415261499591</v>
       </c>
       <c r="D30">
-        <v>0.06885621459162454</v>
+        <v>0.05498135832396219</v>
       </c>
       <c r="E30">
-        <v>0.02511382654347778</v>
+        <v>0.02035252671787386</v>
       </c>
       <c r="F30">
-        <v>-0.04825133522949488</v>
+        <v>-0.05383362368178291</v>
       </c>
       <c r="G30">
-        <v>-0.01749047231950017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01424895132997529</v>
+      </c>
+      <c r="H30">
+        <v>0.03624273819337716</v>
+      </c>
+      <c r="I30">
+        <v>-0.01158750030238628</v>
+      </c>
+      <c r="J30">
+        <v>-0.05719418195099112</v>
+      </c>
+      <c r="K30">
+        <v>0.09130568461624827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.004135537963506583</v>
+        <v>0.01397153387069646</v>
       </c>
       <c r="C31">
-        <v>0.05376577296699128</v>
+        <v>-0.07949186120725535</v>
       </c>
       <c r="D31">
-        <v>0.03331243275885648</v>
+        <v>0.04089960613183313</v>
       </c>
       <c r="E31">
-        <v>-0.02178710136025154</v>
+        <v>-0.001060873069560696</v>
       </c>
       <c r="F31">
-        <v>0.01310785205967421</v>
+        <v>-0.003026358637462996</v>
       </c>
       <c r="G31">
-        <v>-0.02028913976664957</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01825995807275335</v>
+      </c>
+      <c r="H31">
+        <v>0.02991832743435629</v>
+      </c>
+      <c r="I31">
+        <v>-0.03345768832460449</v>
+      </c>
+      <c r="J31">
+        <v>-0.01018002992356433</v>
+      </c>
+      <c r="K31">
+        <v>-0.01579377352682866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01533594912970745</v>
+        <v>0.02117516857981577</v>
       </c>
       <c r="C32">
-        <v>0.08222058115368445</v>
+        <v>-0.051739621162886</v>
       </c>
       <c r="D32">
-        <v>0.003921352203207004</v>
+        <v>0.02410786279572996</v>
       </c>
       <c r="E32">
-        <v>0.1480081123361377</v>
+        <v>-0.05197602019198251</v>
       </c>
       <c r="F32">
-        <v>-0.001169720084060844</v>
+        <v>-0.1060365363936827</v>
       </c>
       <c r="G32">
-        <v>-0.08204201628716494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.09417232767889248</v>
+      </c>
+      <c r="H32">
+        <v>0.146513286648329</v>
+      </c>
+      <c r="I32">
+        <v>-0.0407062152326273</v>
+      </c>
+      <c r="J32">
+        <v>0.2674390333064292</v>
+      </c>
+      <c r="K32">
+        <v>-0.04860596882055923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009718574541353345</v>
+        <v>0.0165552764392674</v>
       </c>
       <c r="C33">
-        <v>0.08867296743077219</v>
+        <v>-0.1040437923865323</v>
       </c>
       <c r="D33">
-        <v>0.06439391434497785</v>
+        <v>0.05132412778001833</v>
       </c>
       <c r="E33">
-        <v>0.005490305801525164</v>
+        <v>0.009268809636551023</v>
       </c>
       <c r="F33">
-        <v>0.01334996644448496</v>
+        <v>-0.01804840699756481</v>
       </c>
       <c r="G33">
-        <v>-0.04731631177363292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03537704082028031</v>
+      </c>
+      <c r="H33">
+        <v>0.04440050204982771</v>
+      </c>
+      <c r="I33">
+        <v>-0.03031441989368804</v>
+      </c>
+      <c r="J33">
+        <v>0.0174154563789669</v>
+      </c>
+      <c r="K33">
+        <v>0.008721126428950402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.001549331932958093</v>
+        <v>0.01658402755634912</v>
       </c>
       <c r="C34">
-        <v>0.04735124705755023</v>
+        <v>-0.04790210062706661</v>
       </c>
       <c r="D34">
-        <v>0.01915229290766616</v>
+        <v>0.01976107947526527</v>
       </c>
       <c r="E34">
-        <v>-0.005587684363316551</v>
+        <v>-0.005658802868288237</v>
       </c>
       <c r="F34">
-        <v>0.02224131379796105</v>
+        <v>0.008170196159117666</v>
       </c>
       <c r="G34">
-        <v>-0.03219548458418264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01544808543460737</v>
+      </c>
+      <c r="H34">
+        <v>-0.00228004233243604</v>
+      </c>
+      <c r="I34">
+        <v>-0.01638227122138256</v>
+      </c>
+      <c r="J34">
+        <v>-0.01767366492811477</v>
+      </c>
+      <c r="K34">
+        <v>0.0008032188295224871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002639011188412053</v>
+        <v>0.01020311225552227</v>
       </c>
       <c r="C35">
-        <v>0.02745715897210867</v>
+        <v>-0.04519860490376069</v>
       </c>
       <c r="D35">
-        <v>0.008117965465150583</v>
+        <v>0.02207737938920216</v>
       </c>
       <c r="E35">
-        <v>0.003966962215085719</v>
+        <v>-0.01005340271358053</v>
       </c>
       <c r="F35">
-        <v>0.009035743229814597</v>
+        <v>-0.00951224081228667</v>
       </c>
       <c r="G35">
-        <v>-0.04108184795026178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.06935847869844526</v>
+      </c>
+      <c r="H35">
+        <v>0.1169962553993569</v>
+      </c>
+      <c r="I35">
+        <v>-0.08947650545307795</v>
+      </c>
+      <c r="J35">
+        <v>0.01090120950263969</v>
+      </c>
+      <c r="K35">
+        <v>-0.1525296540441832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.00518084948019221</v>
+        <v>0.01438085687651697</v>
       </c>
       <c r="C36">
-        <v>0.05068081111891727</v>
+        <v>-0.0473028479391028</v>
       </c>
       <c r="D36">
-        <v>0.05484828375430184</v>
+        <v>0.0437999793377509</v>
       </c>
       <c r="E36">
-        <v>-0.00438276579760071</v>
+        <v>0.004737515939693637</v>
       </c>
       <c r="F36">
-        <v>0.01453708571671987</v>
+        <v>-0.01256010877167469</v>
       </c>
       <c r="G36">
-        <v>-0.03140640753942719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01142440907803085</v>
+      </c>
+      <c r="H36">
+        <v>0.07342845355276348</v>
+      </c>
+      <c r="I36">
+        <v>-0.03647748524240171</v>
+      </c>
+      <c r="J36">
+        <v>-0.008104849202197794</v>
+      </c>
+      <c r="K36">
+        <v>0.05059986597783027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03047910782643548</v>
+        <v>0.009601494339488023</v>
       </c>
       <c r="C38">
-        <v>0.06035927735829106</v>
+        <v>-0.05914227213025108</v>
       </c>
       <c r="D38">
-        <v>0.04771997250006961</v>
+        <v>0.03855827948531806</v>
       </c>
       <c r="E38">
-        <v>-0.02259697391531882</v>
+        <v>0.03402920383129646</v>
       </c>
       <c r="F38">
-        <v>0.002067725632659606</v>
+        <v>-0.01784702973338934</v>
       </c>
       <c r="G38">
-        <v>-0.04177200635760368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02313782428458665</v>
+      </c>
+      <c r="H38">
+        <v>0.09129556171365158</v>
+      </c>
+      <c r="I38">
+        <v>-0.005819345213554008</v>
+      </c>
+      <c r="J38">
+        <v>0.05330201448745262</v>
+      </c>
+      <c r="K38">
+        <v>-0.02353251628073288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001119133064079956</v>
+        <v>0.0226866165069702</v>
       </c>
       <c r="C39">
-        <v>0.1260157448876745</v>
+        <v>-0.1336193473184909</v>
       </c>
       <c r="D39">
-        <v>0.05644157136995542</v>
+        <v>0.05866746101477865</v>
       </c>
       <c r="E39">
-        <v>-0.00932082930931738</v>
+        <v>-0.01250194208086938</v>
       </c>
       <c r="F39">
-        <v>0.009529488230469115</v>
+        <v>0.01252855436551023</v>
       </c>
       <c r="G39">
-        <v>-0.07529261773343476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04578615163417185</v>
+      </c>
+      <c r="H39">
+        <v>0.03649940924450758</v>
+      </c>
+      <c r="I39">
+        <v>-0.004788594884665349</v>
+      </c>
+      <c r="J39">
+        <v>-0.1062669700621838</v>
+      </c>
+      <c r="K39">
+        <v>0.03148363481242647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.002126805249971101</v>
+        <v>0.01275918659314299</v>
       </c>
       <c r="C40">
-        <v>0.02757553341261584</v>
+        <v>-0.055174443052411</v>
       </c>
       <c r="D40">
-        <v>0.0242948034636254</v>
+        <v>0.04163869538446521</v>
       </c>
       <c r="E40">
-        <v>0.129196941381554</v>
+        <v>-0.02967959885630144</v>
       </c>
       <c r="F40">
-        <v>-0.05640760301777024</v>
+        <v>-0.03330133464632837</v>
       </c>
       <c r="G40">
-        <v>-0.09626992490591008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1558078869796338</v>
+      </c>
+      <c r="H40">
+        <v>-0.007470488089743339</v>
+      </c>
+      <c r="I40">
+        <v>-0.04748007106671573</v>
+      </c>
+      <c r="J40">
+        <v>-0.00161113784643538</v>
+      </c>
+      <c r="K40">
+        <v>-0.2678706757653368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01318704714887521</v>
+        <v>0.02236255029063696</v>
       </c>
       <c r="C41">
-        <v>0.02183760810022554</v>
+        <v>-0.04726730679829513</v>
       </c>
       <c r="D41">
-        <v>0.007987124429016454</v>
+        <v>0.01615118843101482</v>
       </c>
       <c r="E41">
-        <v>-0.008251289401245252</v>
+        <v>-0.0008528372391857217</v>
       </c>
       <c r="F41">
-        <v>0.01116748671387894</v>
+        <v>0.01956226130626166</v>
       </c>
       <c r="G41">
-        <v>0.03896471104340391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003648455508808864</v>
+      </c>
+      <c r="H41">
+        <v>0.02291613490288723</v>
+      </c>
+      <c r="I41">
+        <v>-0.006497376689377773</v>
+      </c>
+      <c r="J41">
+        <v>0.02971292171198432</v>
+      </c>
+      <c r="K41">
+        <v>-0.04216640345332148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006343292792466329</v>
+        <v>0.0183369715305822</v>
       </c>
       <c r="C43">
-        <v>0.01937149775531478</v>
+        <v>-0.0429523807666016</v>
       </c>
       <c r="D43">
-        <v>0.02142946307669716</v>
+        <v>0.02870860911806201</v>
       </c>
       <c r="E43">
-        <v>-0.00410455645334481</v>
+        <v>0.01071339394937948</v>
       </c>
       <c r="F43">
-        <v>-0.00561216273488527</v>
+        <v>0.009011360069983107</v>
       </c>
       <c r="G43">
-        <v>0.001491267877288385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008181874546133918</v>
+      </c>
+      <c r="H43">
+        <v>0.04067923857684198</v>
+      </c>
+      <c r="I43">
+        <v>-0.00720389836586433</v>
+      </c>
+      <c r="J43">
+        <v>-0.0006751463716726785</v>
+      </c>
+      <c r="K43">
+        <v>-0.03117070099631378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01877787480455861</v>
+        <v>0.01605223833644658</v>
       </c>
       <c r="C44">
-        <v>0.09832944597836073</v>
+        <v>-0.09881089751539944</v>
       </c>
       <c r="D44">
-        <v>0.03734860476426757</v>
+        <v>0.05668886165459053</v>
       </c>
       <c r="E44">
-        <v>0.02798044983755016</v>
+        <v>0.03482475572360281</v>
       </c>
       <c r="F44">
-        <v>-0.02096586848737242</v>
+        <v>-0.05686326295795924</v>
       </c>
       <c r="G44">
-        <v>-0.06589511677931968</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05501418578578084</v>
+      </c>
+      <c r="H44">
+        <v>0.04116808234997818</v>
+      </c>
+      <c r="I44">
+        <v>-0.01323947769193476</v>
+      </c>
+      <c r="J44">
+        <v>-0.05157613961610914</v>
+      </c>
+      <c r="K44">
+        <v>0.07845726521270086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004109858519452961</v>
+        <v>0.004402783426228764</v>
       </c>
       <c r="C46">
-        <v>0.06366164752976358</v>
+        <v>-0.06467315058731286</v>
       </c>
       <c r="D46">
-        <v>0.0482358101174088</v>
+        <v>0.02836896110249127</v>
       </c>
       <c r="E46">
-        <v>0.01437352267110611</v>
+        <v>-0.006387867392336711</v>
       </c>
       <c r="F46">
-        <v>0.008751279799334695</v>
+        <v>0.003829029285938485</v>
       </c>
       <c r="G46">
-        <v>-0.0671212790489574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05457068445284202</v>
+      </c>
+      <c r="H46">
+        <v>0.08516332714667914</v>
+      </c>
+      <c r="I46">
+        <v>-0.03414302976518051</v>
+      </c>
+      <c r="J46">
+        <v>-0.002885162069547561</v>
+      </c>
+      <c r="K46">
+        <v>-0.0781677186157495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.00312448176949984</v>
+        <v>0.02148985409942259</v>
       </c>
       <c r="C47">
-        <v>0.06326531304622993</v>
+        <v>-0.07677402437291043</v>
       </c>
       <c r="D47">
-        <v>0.05162704348331059</v>
+        <v>0.04259001085183986</v>
       </c>
       <c r="E47">
-        <v>-0.0217738037398277</v>
+        <v>-0.003631722279914737</v>
       </c>
       <c r="F47">
-        <v>0.04835485378361006</v>
+        <v>0.01182850381655208</v>
       </c>
       <c r="G47">
-        <v>-0.03589626627483547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02076705458827215</v>
+      </c>
+      <c r="H47">
+        <v>0.06410882391876987</v>
+      </c>
+      <c r="I47">
+        <v>-0.02806003328810533</v>
+      </c>
+      <c r="J47">
+        <v>0.01618210874499409</v>
+      </c>
+      <c r="K47">
+        <v>-0.02332672762939865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.00473342202595832</v>
+        <v>0.01835962844578038</v>
       </c>
       <c r="C48">
-        <v>0.05086252576622222</v>
+        <v>-0.04855417860044407</v>
       </c>
       <c r="D48">
-        <v>0.06044625952931643</v>
+        <v>0.05191860834128153</v>
       </c>
       <c r="E48">
-        <v>-0.0002116894248229908</v>
+        <v>0.01012613677284797</v>
       </c>
       <c r="F48">
-        <v>0.007955622793840487</v>
+        <v>-0.00763729057625717</v>
       </c>
       <c r="G48">
-        <v>-0.03663964379832116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01573521842667444</v>
+      </c>
+      <c r="H48">
+        <v>0.08179103831894119</v>
+      </c>
+      <c r="I48">
+        <v>-0.07061190431329231</v>
+      </c>
+      <c r="J48">
+        <v>-0.02426371159601834</v>
+      </c>
+      <c r="K48">
+        <v>0.107835692217698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.01494986397228767</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0379474340760238</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008392391157548397</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.003553520910785664</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.06092368343820328</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03136296996555023</v>
+      </c>
+      <c r="H49">
+        <v>-0.035120865707142</v>
+      </c>
+      <c r="I49">
+        <v>0.006008754910374502</v>
+      </c>
+      <c r="J49">
+        <v>-0.08242448191191616</v>
+      </c>
+      <c r="K49">
+        <v>0.03222792511855184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001347097611808613</v>
+        <v>0.01402174250559729</v>
       </c>
       <c r="C50">
-        <v>0.06666457094717881</v>
+        <v>-0.07776711255037812</v>
       </c>
       <c r="D50">
-        <v>0.02815703171856535</v>
+        <v>0.03021697516746119</v>
       </c>
       <c r="E50">
-        <v>-0.009988701637798169</v>
+        <v>0.01032084904734397</v>
       </c>
       <c r="F50">
-        <v>-0.004235150703280471</v>
+        <v>-0.01213548417417548</v>
       </c>
       <c r="G50">
-        <v>-0.03413682528929061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001658379359231003</v>
+      </c>
+      <c r="H50">
+        <v>0.04540898339563754</v>
+      </c>
+      <c r="I50">
+        <v>-0.04296523422437287</v>
+      </c>
+      <c r="J50">
+        <v>0.04653639599514293</v>
+      </c>
+      <c r="K50">
+        <v>-0.009818056160822507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002481358168438614</v>
+        <v>-0.004754620306879194</v>
       </c>
       <c r="C51">
-        <v>0.07056440736714407</v>
+        <v>-0.03606620197529251</v>
       </c>
       <c r="D51">
-        <v>0.03940408213535027</v>
+        <v>0.02379894084198424</v>
       </c>
       <c r="E51">
-        <v>0.04911421433668864</v>
+        <v>-0.007437844904048637</v>
       </c>
       <c r="F51">
-        <v>-0.003694648593668442</v>
+        <v>-0.02851482336103554</v>
       </c>
       <c r="G51">
-        <v>-0.01365412474802491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04075456067304118</v>
+      </c>
+      <c r="H51">
+        <v>0.09447452440967365</v>
+      </c>
+      <c r="I51">
+        <v>-0.02980288377693454</v>
+      </c>
+      <c r="J51">
+        <v>-0.01613977896632369</v>
+      </c>
+      <c r="K51">
+        <v>0.09466199281561914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03149606662527422</v>
+        <v>0.05921917090259464</v>
       </c>
       <c r="C53">
-        <v>0.1194905715565573</v>
+        <v>-0.13209212603813</v>
       </c>
       <c r="D53">
-        <v>0.07178880622374455</v>
+        <v>0.06027158856141532</v>
       </c>
       <c r="E53">
-        <v>-0.1286736348827568</v>
+        <v>-0.02262133830686869</v>
       </c>
       <c r="F53">
-        <v>0.0464156868969257</v>
+        <v>0.06953887099711754</v>
       </c>
       <c r="G53">
-        <v>0.08183919704638792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.09183524196304911</v>
+      </c>
+      <c r="H53">
+        <v>-0.02614524922064177</v>
+      </c>
+      <c r="I53">
+        <v>-0.009137093199873018</v>
+      </c>
+      <c r="J53">
+        <v>0.02424954114354443</v>
+      </c>
+      <c r="K53">
+        <v>-0.006605487400665491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.002765386378060866</v>
+        <v>0.01632815815794778</v>
       </c>
       <c r="C54">
-        <v>0.06657738800482708</v>
+        <v>-0.07121419967035701</v>
       </c>
       <c r="D54">
-        <v>0.01383202873047839</v>
+        <v>0.0126712781666682</v>
       </c>
       <c r="E54">
-        <v>-0.02164578238174072</v>
+        <v>-0.003742975775802162</v>
       </c>
       <c r="F54">
-        <v>0.0006190738517717718</v>
+        <v>0.009755010131560897</v>
       </c>
       <c r="G54">
-        <v>-0.03113044745135469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0254163754491497</v>
+      </c>
+      <c r="H54">
+        <v>0.03148574653995351</v>
+      </c>
+      <c r="I54">
+        <v>-0.05076766554032475</v>
+      </c>
+      <c r="J54">
+        <v>-0.01409769435097859</v>
+      </c>
+      <c r="K54">
+        <v>0.004926324114480752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01610103246520093</v>
+        <v>0.03058739811072779</v>
       </c>
       <c r="C55">
-        <v>0.07642544774369023</v>
+        <v>-0.08465196428596579</v>
       </c>
       <c r="D55">
-        <v>0.06814775408116497</v>
+        <v>0.0555436225775925</v>
       </c>
       <c r="E55">
-        <v>-0.05802282735580264</v>
+        <v>-0.01040688873157718</v>
       </c>
       <c r="F55">
-        <v>0.03709272092585206</v>
+        <v>0.04761401883333172</v>
       </c>
       <c r="G55">
-        <v>0.01739750764051046</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04021519407792248</v>
+      </c>
+      <c r="H55">
+        <v>-0.01478506356140977</v>
+      </c>
+      <c r="I55">
+        <v>-0.01086489184041643</v>
+      </c>
+      <c r="J55">
+        <v>-0.008169222122071646</v>
+      </c>
+      <c r="K55">
+        <v>0.003531172047115046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01486060989803938</v>
+        <v>0.04645854822943341</v>
       </c>
       <c r="C56">
-        <v>0.1495280154057929</v>
+        <v>-0.1510590684340396</v>
       </c>
       <c r="D56">
-        <v>0.08024677201470307</v>
+        <v>0.08630682218655582</v>
       </c>
       <c r="E56">
-        <v>-0.1020208643609204</v>
+        <v>-0.05644741938473614</v>
       </c>
       <c r="F56">
-        <v>0.07103923536690869</v>
+        <v>0.08957030010277282</v>
       </c>
       <c r="G56">
-        <v>0.1268015248045527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1701510964125481</v>
+      </c>
+      <c r="H56">
+        <v>-0.02529804043065936</v>
+      </c>
+      <c r="I56">
+        <v>-0.01502772513758662</v>
+      </c>
+      <c r="J56">
+        <v>0.009181774571114033</v>
+      </c>
+      <c r="K56">
+        <v>0.01879079454405034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02104808237910924</v>
+        <v>0.01744307103928934</v>
       </c>
       <c r="C58">
-        <v>0.2979629245117613</v>
+        <v>-0.1804588987036929</v>
       </c>
       <c r="D58">
-        <v>-0.01535396674303793</v>
+        <v>0.03864720328797078</v>
       </c>
       <c r="E58">
-        <v>0.1548731361855203</v>
+        <v>0.07454682291111871</v>
       </c>
       <c r="F58">
-        <v>-0.2616639457643435</v>
+        <v>-0.3114452685599315</v>
       </c>
       <c r="G58">
-        <v>0.05146314979026486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.06062066399521683</v>
+      </c>
+      <c r="H58">
+        <v>0.1065970694621476</v>
+      </c>
+      <c r="I58">
+        <v>0.03045184132519488</v>
+      </c>
+      <c r="J58">
+        <v>0.07226920111941745</v>
+      </c>
+      <c r="K58">
+        <v>0.3621164714768195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2876897940369807</v>
+        <v>0.2901087097805275</v>
       </c>
       <c r="C59">
-        <v>0.002061309347719942</v>
+        <v>0.04544024001791978</v>
       </c>
       <c r="D59">
-        <v>-0.008760294921084502</v>
+        <v>-0.007171928404873211</v>
       </c>
       <c r="E59">
-        <v>0.05525490458506323</v>
+        <v>-0.01321409660329249</v>
       </c>
       <c r="F59">
-        <v>0.04939634524366149</v>
+        <v>-0.04925516227320014</v>
       </c>
       <c r="G59">
-        <v>0.01221907686465241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002951192613629345</v>
+      </c>
+      <c r="H59">
+        <v>-0.0156323370179663</v>
+      </c>
+      <c r="I59">
+        <v>0.02410053902732298</v>
+      </c>
+      <c r="J59">
+        <v>0.0268755190459325</v>
+      </c>
+      <c r="K59">
+        <v>-0.0290263224880649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1029822931371694</v>
+        <v>0.1478573949274355</v>
       </c>
       <c r="C60">
-        <v>0.1460040373691272</v>
+        <v>-0.1544775341935785</v>
       </c>
       <c r="D60">
-        <v>0.07916817535106592</v>
+        <v>0.04621048305463398</v>
       </c>
       <c r="E60">
-        <v>-0.088420606074937</v>
+        <v>-0.05202736892196885</v>
       </c>
       <c r="F60">
-        <v>0.1857185818227211</v>
+        <v>0.1199450703717092</v>
       </c>
       <c r="G60">
-        <v>-0.2623617842035078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2174738115622866</v>
+      </c>
+      <c r="H60">
+        <v>-0.2526576970934649</v>
+      </c>
+      <c r="I60">
+        <v>0.1009416602185318</v>
+      </c>
+      <c r="J60">
+        <v>-0.009328076082062594</v>
+      </c>
+      <c r="K60">
+        <v>0.03626835039749068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0009265238106727451</v>
+        <v>0.02280785303665756</v>
       </c>
       <c r="C61">
-        <v>0.08166817881558122</v>
+        <v>-0.09761777925101449</v>
       </c>
       <c r="D61">
-        <v>0.06546794813822893</v>
+        <v>0.05526068243214981</v>
       </c>
       <c r="E61">
-        <v>-0.02861952652550398</v>
+        <v>-0.009247291289822429</v>
       </c>
       <c r="F61">
-        <v>0.02773443497896616</v>
+        <v>0.02645606520469293</v>
       </c>
       <c r="G61">
-        <v>-0.07449601001884773</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03186278987926625</v>
+      </c>
+      <c r="H61">
+        <v>0.03346560229749384</v>
+      </c>
+      <c r="I61">
+        <v>-0.04661660561782154</v>
+      </c>
+      <c r="J61">
+        <v>-0.03988012140669093</v>
+      </c>
+      <c r="K61">
+        <v>-0.01070610541488947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003225510158387956</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01333651237094425</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003107526996197083</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01182220795132232</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01637396970231881</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01700284867967375</v>
+      </c>
+      <c r="H62">
+        <v>-0.01608362952307298</v>
+      </c>
+      <c r="I62">
+        <v>-0.05292886643875441</v>
+      </c>
+      <c r="J62">
+        <v>0.01632924522852868</v>
+      </c>
+      <c r="K62">
+        <v>-0.0009944634488927087</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0004885900809206119</v>
+        <v>0.02602360687449587</v>
       </c>
       <c r="C63">
-        <v>0.05832009047104705</v>
+        <v>-0.06487871051518458</v>
       </c>
       <c r="D63">
-        <v>0.04369986333381852</v>
+        <v>0.05856203161933194</v>
       </c>
       <c r="E63">
-        <v>-0.03309328642765785</v>
+        <v>-0.005750372002480631</v>
       </c>
       <c r="F63">
-        <v>0.001065555969259055</v>
+        <v>0.009596334885251584</v>
       </c>
       <c r="G63">
-        <v>-0.02432261681562865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009135998949511797</v>
+      </c>
+      <c r="H63">
+        <v>0.0427635752907208</v>
+      </c>
+      <c r="I63">
+        <v>-0.0563016272567777</v>
+      </c>
+      <c r="J63">
+        <v>-0.0146579581807329</v>
+      </c>
+      <c r="K63">
+        <v>-0.004201873949564871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.00539501932047101</v>
+        <v>0.0175836038117269</v>
       </c>
       <c r="C64">
-        <v>0.0776631639402131</v>
+        <v>-0.09187880660788583</v>
       </c>
       <c r="D64">
-        <v>0.06700992297665505</v>
+        <v>0.03407954526260921</v>
       </c>
       <c r="E64">
-        <v>-0.001756213444384998</v>
+        <v>0.02972573044372743</v>
       </c>
       <c r="F64">
-        <v>-0.008661119553727958</v>
+        <v>-0.02430374006020338</v>
       </c>
       <c r="G64">
-        <v>-0.06543720121971382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07079793197791426</v>
+      </c>
+      <c r="H64">
+        <v>0.005873271116256042</v>
+      </c>
+      <c r="I64">
+        <v>-0.06012536124737213</v>
+      </c>
+      <c r="J64">
+        <v>-0.06966846900620854</v>
+      </c>
+      <c r="K64">
+        <v>-0.01948450747691348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.0005411345845589516</v>
+        <v>0.03039854469200869</v>
       </c>
       <c r="C65">
-        <v>0.08649684054420463</v>
+        <v>-0.09265804390539614</v>
       </c>
       <c r="D65">
-        <v>0.03590526018008309</v>
+        <v>0.02210970489742561</v>
       </c>
       <c r="E65">
-        <v>0.01872954609675268</v>
+        <v>0.0165082092423648</v>
       </c>
       <c r="F65">
-        <v>0.00306336182047951</v>
+        <v>-0.001053927857019279</v>
       </c>
       <c r="G65">
-        <v>-0.06841558394066945</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08567617580459187</v>
+      </c>
+      <c r="H65">
+        <v>0.0008377184954829902</v>
+      </c>
+      <c r="I65">
+        <v>0.03311464450088517</v>
+      </c>
+      <c r="J65">
+        <v>-0.08242880439710037</v>
+      </c>
+      <c r="K65">
+        <v>0.08605959874086648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.004333781227471233</v>
+        <v>0.01864772859517043</v>
       </c>
       <c r="C66">
-        <v>0.1691324102616401</v>
+        <v>-0.1703636526133135</v>
       </c>
       <c r="D66">
-        <v>0.04902280404528352</v>
+        <v>0.05123923170346065</v>
       </c>
       <c r="E66">
-        <v>0.03373228135767493</v>
+        <v>-0.01683739564809307</v>
       </c>
       <c r="F66">
-        <v>0.02488417621233403</v>
+        <v>-0.005763167094777723</v>
       </c>
       <c r="G66">
-        <v>-0.09780563243821866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03736036279643137</v>
+      </c>
+      <c r="H66">
+        <v>0.0441691724936245</v>
+      </c>
+      <c r="I66">
+        <v>-0.02612830069071789</v>
+      </c>
+      <c r="J66">
+        <v>-0.07986541339322872</v>
+      </c>
+      <c r="K66">
+        <v>0.02265925902825388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02946616077410403</v>
+        <v>0.01852115913315559</v>
       </c>
       <c r="C67">
-        <v>0.03573762007768779</v>
+        <v>-0.05010994845534292</v>
       </c>
       <c r="D67">
-        <v>0.06310430979211935</v>
+        <v>0.0401976412762115</v>
       </c>
       <c r="E67">
-        <v>-0.05268834435281157</v>
+        <v>0.02620540267243542</v>
       </c>
       <c r="F67">
-        <v>0.01392987439586972</v>
+        <v>0.01714982190318802</v>
       </c>
       <c r="G67">
-        <v>-0.05168755178899839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.04520092724502461</v>
+      </c>
+      <c r="H67">
+        <v>0.06652112255941345</v>
+      </c>
+      <c r="I67">
+        <v>0.01130945753624022</v>
+      </c>
+      <c r="J67">
+        <v>0.0471779020714367</v>
+      </c>
+      <c r="K67">
+        <v>-0.03821359962868043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2935100591179004</v>
+        <v>0.294047317925273</v>
       </c>
       <c r="C68">
-        <v>-0.02108184217420244</v>
+        <v>0.06980944308370349</v>
       </c>
       <c r="D68">
-        <v>0.003802653822096169</v>
+        <v>-0.02428667748317476</v>
       </c>
       <c r="E68">
-        <v>0.02991019439513985</v>
+        <v>-0.001025603018304131</v>
       </c>
       <c r="F68">
-        <v>0.009487565832679892</v>
+        <v>-0.04449909149669989</v>
       </c>
       <c r="G68">
-        <v>-0.008634491499016387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01751420909098571</v>
+      </c>
+      <c r="H68">
+        <v>0.01231023136122301</v>
+      </c>
+      <c r="I68">
+        <v>-0.05789601704750726</v>
+      </c>
+      <c r="J68">
+        <v>0.04938850158873748</v>
+      </c>
+      <c r="K68">
+        <v>0.01068336609633887</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.006292531694921522</v>
+        <v>0.008215986188715003</v>
       </c>
       <c r="C69">
-        <v>0.04815265760542211</v>
+        <v>-0.04679812976469713</v>
       </c>
       <c r="D69">
-        <v>0.05080154882104974</v>
+        <v>0.02461536285740731</v>
       </c>
       <c r="E69">
-        <v>-0.03192426475951202</v>
+        <v>-0.005613634542819186</v>
       </c>
       <c r="F69">
-        <v>0.002491252482296093</v>
+        <v>0.00975078966453671</v>
       </c>
       <c r="G69">
-        <v>-0.03092290456505297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02846426160092148</v>
+      </c>
+      <c r="H69">
+        <v>0.02839514814320764</v>
+      </c>
+      <c r="I69">
+        <v>-0.01209882053306069</v>
+      </c>
+      <c r="J69">
+        <v>0.02086701993833931</v>
+      </c>
+      <c r="K69">
+        <v>-0.001277459975380678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2901456056938996</v>
+        <v>0.276699460725577</v>
       </c>
       <c r="C71">
-        <v>-0.03764725080381913</v>
+        <v>0.0751609510228203</v>
       </c>
       <c r="D71">
-        <v>-0.006798774973476789</v>
+        <v>-0.02327169517730419</v>
       </c>
       <c r="E71">
-        <v>0.01998106547023152</v>
+        <v>0.02199909095888468</v>
       </c>
       <c r="F71">
-        <v>-0.01530729428253031</v>
+        <v>-0.06529265343125223</v>
       </c>
       <c r="G71">
-        <v>0.005453870721115304</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01770992289101169</v>
+      </c>
+      <c r="H71">
+        <v>0.04840632411160579</v>
+      </c>
+      <c r="I71">
+        <v>-0.02768361428740263</v>
+      </c>
+      <c r="J71">
+        <v>0.1156350075054471</v>
+      </c>
+      <c r="K71">
+        <v>0.03660596644675662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.009964577447526504</v>
+        <v>0.0542101469323004</v>
       </c>
       <c r="C72">
-        <v>0.1507254060136848</v>
+        <v>-0.1406598590073393</v>
       </c>
       <c r="D72">
-        <v>0.07203535473496449</v>
+        <v>0.05065068462383167</v>
       </c>
       <c r="E72">
-        <v>-0.01202060586147087</v>
+        <v>-0.01961274472443812</v>
       </c>
       <c r="F72">
-        <v>-0.04383982197169898</v>
+        <v>0.03146775907243912</v>
       </c>
       <c r="G72">
-        <v>-0.1255633734629745</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01001352479254896</v>
+      </c>
+      <c r="H72">
+        <v>0.01215250013189922</v>
+      </c>
+      <c r="I72">
+        <v>-0.04785747419019734</v>
+      </c>
+      <c r="J72">
+        <v>-0.09612240956309935</v>
+      </c>
+      <c r="K72">
+        <v>0.05549559005791926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06528285944664411</v>
+        <v>0.1506267650848303</v>
       </c>
       <c r="C73">
-        <v>0.1055211307387877</v>
+        <v>-0.1960102883570335</v>
       </c>
       <c r="D73">
-        <v>0.1177371347489313</v>
+        <v>0.08696956206711716</v>
       </c>
       <c r="E73">
-        <v>-0.1765230619655366</v>
+        <v>-0.03642744251868476</v>
       </c>
       <c r="F73">
-        <v>0.2027950197062021</v>
+        <v>0.2375327963732873</v>
       </c>
       <c r="G73">
-        <v>-0.3250078637141177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3381275607303523</v>
+      </c>
+      <c r="H73">
+        <v>-0.3047108778535494</v>
+      </c>
+      <c r="I73">
+        <v>0.1586477836565976</v>
+      </c>
+      <c r="J73">
+        <v>0.1071723395209987</v>
+      </c>
+      <c r="K73">
+        <v>0.08615639770834234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.008554116241168207</v>
+        <v>0.03815927671539449</v>
       </c>
       <c r="C74">
-        <v>0.08132936019982188</v>
+        <v>-0.09963646228265492</v>
       </c>
       <c r="D74">
-        <v>0.07374557678052274</v>
+        <v>0.04833029469161633</v>
       </c>
       <c r="E74">
-        <v>-0.07628040074022518</v>
+        <v>0.007685001476391408</v>
       </c>
       <c r="F74">
-        <v>0.0399099658404189</v>
+        <v>0.03445834984171364</v>
       </c>
       <c r="G74">
-        <v>0.04706894904679584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04552454000153203</v>
+      </c>
+      <c r="H74">
+        <v>-0.008353608402708204</v>
+      </c>
+      <c r="I74">
+        <v>-0.03163626130919509</v>
+      </c>
+      <c r="J74">
+        <v>0.002007708798430197</v>
+      </c>
+      <c r="K74">
+        <v>0.04407680960745313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04171547306183052</v>
+        <v>0.06255598526430321</v>
       </c>
       <c r="C75">
-        <v>0.1357787738941791</v>
+        <v>-0.1642607220829527</v>
       </c>
       <c r="D75">
-        <v>0.09093800041730275</v>
+        <v>0.08866839938441384</v>
       </c>
       <c r="E75">
-        <v>-0.1625906189491826</v>
+        <v>0.02552112393055481</v>
       </c>
       <c r="F75">
-        <v>0.02801909389374174</v>
+        <v>0.1154074379516776</v>
       </c>
       <c r="G75">
-        <v>0.1878238808229601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2225748455333644</v>
+      </c>
+      <c r="H75">
+        <v>0.00214821013690218</v>
+      </c>
+      <c r="I75">
+        <v>-0.02473166354897327</v>
+      </c>
+      <c r="J75">
+        <v>0.1195182790672801</v>
+      </c>
+      <c r="K75">
+        <v>-0.09479149752402365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01606242146868708</v>
+        <v>0.04307301451529393</v>
       </c>
       <c r="C76">
-        <v>0.1016899476404027</v>
+        <v>-0.122834650415794</v>
       </c>
       <c r="D76">
-        <v>0.06884277322968863</v>
+        <v>0.07624637657900159</v>
       </c>
       <c r="E76">
-        <v>-0.08945772087063411</v>
+        <v>-0.0184658402934566</v>
       </c>
       <c r="F76">
-        <v>0.05744725375868016</v>
+        <v>0.08193173241938148</v>
       </c>
       <c r="G76">
-        <v>0.04980202872820347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0844767172645208</v>
+      </c>
+      <c r="H76">
+        <v>-0.02225089297258463</v>
+      </c>
+      <c r="I76">
+        <v>-0.03859728857835511</v>
+      </c>
+      <c r="J76">
+        <v>-0.02969287733632783</v>
+      </c>
+      <c r="K76">
+        <v>-0.0163578600904088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08892039596334264</v>
+        <v>0.0500564308059859</v>
       </c>
       <c r="C77">
-        <v>0.3809833519753232</v>
+        <v>-0.4053133919868626</v>
       </c>
       <c r="D77">
-        <v>-0.8322550945430582</v>
+        <v>-0.8972650628292556</v>
       </c>
       <c r="E77">
-        <v>-0.2859438132533375</v>
+        <v>0.01713679473947124</v>
       </c>
       <c r="F77">
-        <v>0.117652967501619</v>
+        <v>0.0870656741914283</v>
       </c>
       <c r="G77">
-        <v>-0.01899228734382638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03502579549795787</v>
+      </c>
+      <c r="H77">
+        <v>0.02679980313179596</v>
+      </c>
+      <c r="I77">
+        <v>-0.06791280079470101</v>
+      </c>
+      <c r="J77">
+        <v>0.008934065507482417</v>
+      </c>
+      <c r="K77">
+        <v>-0.003755681335099809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02341644164219424</v>
+        <v>0.03561026607058267</v>
       </c>
       <c r="C78">
-        <v>0.1301058248211158</v>
+        <v>-0.1146431093967552</v>
       </c>
       <c r="D78">
-        <v>0.1836452621982291</v>
+        <v>0.093538793775855</v>
       </c>
       <c r="E78">
-        <v>0.09550839720210189</v>
+        <v>-0.04107224091788457</v>
       </c>
       <c r="F78">
-        <v>0.1315026050464234</v>
+        <v>-0.0001619799313564287</v>
       </c>
       <c r="G78">
-        <v>0.1171947574604558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.09880575433588196</v>
+      </c>
+      <c r="H78">
+        <v>0.1041539231211252</v>
+      </c>
+      <c r="I78">
+        <v>0.03399085181631987</v>
+      </c>
+      <c r="J78">
+        <v>-0.06359622370325589</v>
+      </c>
+      <c r="K78">
+        <v>0.4070117067422843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02688577355197473</v>
+        <v>0.05738549125913279</v>
       </c>
       <c r="C79">
-        <v>0.1614542513635221</v>
+        <v>-0.1455756241597145</v>
       </c>
       <c r="D79">
-        <v>0.1222757883252744</v>
+        <v>0.07175225254122305</v>
       </c>
       <c r="E79">
-        <v>-0.1098230865966636</v>
+        <v>-0.02388626463587755</v>
       </c>
       <c r="F79">
-        <v>0.06574283925142467</v>
+        <v>0.06611255596006224</v>
       </c>
       <c r="G79">
-        <v>0.2497431801492835</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2330039780630125</v>
+      </c>
+      <c r="H79">
+        <v>0.02802979260498651</v>
+      </c>
+      <c r="I79">
+        <v>-0.03615173195749775</v>
+      </c>
+      <c r="J79">
+        <v>0.06769497230096382</v>
+      </c>
+      <c r="K79">
+        <v>0.05445704273064278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.008927112035502971</v>
+        <v>0.01974251160875706</v>
       </c>
       <c r="C80">
-        <v>0.05273142573504927</v>
+        <v>-0.04403339012564163</v>
       </c>
       <c r="D80">
-        <v>0.05610112489913324</v>
+        <v>0.0386004046172713</v>
       </c>
       <c r="E80">
-        <v>0.03339295666687894</v>
+        <v>-0.0434343552432576</v>
       </c>
       <c r="F80">
-        <v>0.01438978083297953</v>
+        <v>-0.03404017671716122</v>
       </c>
       <c r="G80">
-        <v>-0.002191695243231858</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.07025502661856763</v>
+      </c>
+      <c r="H80">
+        <v>-0.01343465626696087</v>
+      </c>
+      <c r="I80">
+        <v>0.06415181005849202</v>
+      </c>
+      <c r="J80">
+        <v>0.02778951742099806</v>
+      </c>
+      <c r="K80">
+        <v>-0.05796103877029867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.00623702093558678</v>
+        <v>0.01715252804003338</v>
       </c>
       <c r="C81">
-        <v>0.06812218418389632</v>
+        <v>-0.09680818773726467</v>
       </c>
       <c r="D81">
-        <v>0.07817932088755847</v>
+        <v>0.05896546677715928</v>
       </c>
       <c r="E81">
-        <v>-0.08130458885314829</v>
+        <v>-0.01884660853085184</v>
       </c>
       <c r="F81">
-        <v>0.04872937315769343</v>
+        <v>0.04059383703281969</v>
       </c>
       <c r="G81">
-        <v>0.08304021400288558</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1000954400236993</v>
+      </c>
+      <c r="H81">
+        <v>0.05114659309377907</v>
+      </c>
+      <c r="I81">
+        <v>-0.03655459722562691</v>
+      </c>
+      <c r="J81">
+        <v>0.05195759320399162</v>
+      </c>
+      <c r="K81">
+        <v>-0.01249582223672012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0174631501539714</v>
+        <v>0.04466148022709239</v>
       </c>
       <c r="C82">
-        <v>0.07234039316336886</v>
+        <v>-0.1028624805876604</v>
       </c>
       <c r="D82">
-        <v>0.07621324994369229</v>
+        <v>0.0670352975345133</v>
       </c>
       <c r="E82">
-        <v>-0.1007128160026221</v>
+        <v>-0.02483063258420255</v>
       </c>
       <c r="F82">
-        <v>0.0467308326065551</v>
+        <v>0.07226311596717018</v>
       </c>
       <c r="G82">
-        <v>0.04557085468560891</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08382772719630503</v>
+      </c>
+      <c r="H82">
+        <v>0.01586678777974468</v>
+      </c>
+      <c r="I82">
+        <v>-0.01066422518898055</v>
+      </c>
+      <c r="J82">
+        <v>-0.004518362036133994</v>
+      </c>
+      <c r="K82">
+        <v>0.01015568884737807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004766309353205468</v>
+        <v>-0.0009850998799932117</v>
       </c>
       <c r="C83">
-        <v>0.02918844017506109</v>
+        <v>0.02279750277383592</v>
       </c>
       <c r="D83">
-        <v>-0.12709450916759</v>
+        <v>-0.05753132617469338</v>
       </c>
       <c r="E83">
-        <v>0.5737367135367546</v>
+        <v>-0.9396998650291392</v>
       </c>
       <c r="F83">
-        <v>0.6958674669985508</v>
+        <v>-0.2100927601865419</v>
       </c>
       <c r="G83">
-        <v>0.1786438231700332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04406274556876746</v>
+      </c>
+      <c r="H83">
+        <v>-0.06091086891254378</v>
+      </c>
+      <c r="I83">
+        <v>0.05031161559162801</v>
+      </c>
+      <c r="J83">
+        <v>-0.07790879467885901</v>
+      </c>
+      <c r="K83">
+        <v>0.03059362173010222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.006183005941840772</v>
+        <v>0.0009064392246110087</v>
       </c>
       <c r="C84">
-        <v>0.07868034369167456</v>
+        <v>-0.05140852897904206</v>
       </c>
       <c r="D84">
-        <v>0.03748470154118135</v>
+        <v>0.06392487646011842</v>
       </c>
       <c r="E84">
-        <v>0.06536966070405767</v>
+        <v>0.03267340131154037</v>
       </c>
       <c r="F84">
-        <v>-0.1494109876590593</v>
+        <v>-0.08194350476092739</v>
       </c>
       <c r="G84">
-        <v>0.00170245557758591</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02326810591506997</v>
+      </c>
+      <c r="H84">
+        <v>0.07156511505892563</v>
+      </c>
+      <c r="I84">
+        <v>-0.03978788761447864</v>
+      </c>
+      <c r="J84">
+        <v>-0.1845499639208796</v>
+      </c>
+      <c r="K84">
+        <v>-0.03302448926161416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0003326360430652617</v>
+        <v>0.02906527093910045</v>
       </c>
       <c r="C85">
-        <v>0.1104832337752506</v>
+        <v>-0.1156972748526224</v>
       </c>
       <c r="D85">
-        <v>0.08459111456519514</v>
+        <v>0.0852967435368224</v>
       </c>
       <c r="E85">
-        <v>-0.1146923437390142</v>
+        <v>-0.02991207264779783</v>
       </c>
       <c r="F85">
-        <v>0.06476830884889118</v>
+        <v>0.1237808286284325</v>
       </c>
       <c r="G85">
-        <v>0.2021164454818604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2271855954063908</v>
+      </c>
+      <c r="H85">
+        <v>-0.02044592967884382</v>
+      </c>
+      <c r="I85">
+        <v>-0.05372184906768133</v>
+      </c>
+      <c r="J85">
+        <v>0.06522369899790136</v>
+      </c>
+      <c r="K85">
+        <v>-0.0199728290234604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02151790242643368</v>
+        <v>0.01523365723155426</v>
       </c>
       <c r="C86">
-        <v>0.07543269650656319</v>
+        <v>-0.08110974657420464</v>
       </c>
       <c r="D86">
-        <v>-0.006192605200581555</v>
+        <v>0.03038953051829903</v>
       </c>
       <c r="E86">
-        <v>0.01305764801451716</v>
+        <v>0.009792468449974587</v>
       </c>
       <c r="F86">
-        <v>-0.02377986370916454</v>
+        <v>-0.07420323142323373</v>
       </c>
       <c r="G86">
-        <v>-0.07271937767142451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0405590452539438</v>
+      </c>
+      <c r="H86">
+        <v>0.07488494705749051</v>
+      </c>
+      <c r="I86">
+        <v>0.1455587841304935</v>
+      </c>
+      <c r="J86">
+        <v>0.1344743327754114</v>
+      </c>
+      <c r="K86">
+        <v>0.1678680052027159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02299130375383551</v>
+        <v>0.02665846411590522</v>
       </c>
       <c r="C87">
-        <v>0.1497542796615965</v>
+        <v>-0.1211376566091487</v>
       </c>
       <c r="D87">
-        <v>0.04074103972608032</v>
+        <v>0.0231915936526406</v>
       </c>
       <c r="E87">
-        <v>0.09044944180984925</v>
+        <v>0.003314423287833404</v>
       </c>
       <c r="F87">
-        <v>-0.04731648696084445</v>
+        <v>-0.05531975843954533</v>
       </c>
       <c r="G87">
-        <v>-0.002947432170877811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.002776013626591226</v>
+      </c>
+      <c r="H87">
+        <v>0.01767238823888872</v>
+      </c>
+      <c r="I87">
+        <v>-0.04460040085190142</v>
+      </c>
+      <c r="J87">
+        <v>-0.09051629340647326</v>
+      </c>
+      <c r="K87">
+        <v>0.0536721793455219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.007825006173407366</v>
+        <v>0.04030508978046416</v>
       </c>
       <c r="C88">
-        <v>0.03527524848511947</v>
+        <v>-0.06005867358861459</v>
       </c>
       <c r="D88">
-        <v>0.04037137849556822</v>
+        <v>0.04219320215253098</v>
       </c>
       <c r="E88">
-        <v>-0.05512924018110672</v>
+        <v>0.004750337658398158</v>
       </c>
       <c r="F88">
-        <v>0.004737271165497997</v>
+        <v>0.02120911268640603</v>
       </c>
       <c r="G88">
-        <v>-0.009983538242093267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01881448957136534</v>
+      </c>
+      <c r="H88">
+        <v>-0.01932496067059425</v>
+      </c>
+      <c r="I88">
+        <v>-0.01365285398805886</v>
+      </c>
+      <c r="J88">
+        <v>0.005786483619173029</v>
+      </c>
+      <c r="K88">
+        <v>-0.06624618950713565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4015708852648423</v>
+        <v>0.3932186605354047</v>
       </c>
       <c r="C89">
-        <v>-0.06593460385036647</v>
+        <v>0.1145492436918707</v>
       </c>
       <c r="D89">
-        <v>0.07033108257247574</v>
+        <v>-0.03731432548103762</v>
       </c>
       <c r="E89">
-        <v>0.05982852349387437</v>
+        <v>0.04378209092750996</v>
       </c>
       <c r="F89">
-        <v>-0.09538042068260616</v>
+        <v>-0.04003883088335897</v>
       </c>
       <c r="G89">
-        <v>0.01913838282925559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03343793781906656</v>
+      </c>
+      <c r="H89">
+        <v>-0.0006454675332417616</v>
+      </c>
+      <c r="I89">
+        <v>-0.0192083783289475</v>
+      </c>
+      <c r="J89">
+        <v>-0.718820183189308</v>
+      </c>
+      <c r="K89">
+        <v>-0.02118139546285131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3069805218699316</v>
+        <v>0.3154925300781124</v>
       </c>
       <c r="C90">
-        <v>-0.01774336759606105</v>
+        <v>0.07506986231629444</v>
       </c>
       <c r="D90">
-        <v>0.0003738129280354987</v>
+        <v>-0.02044595580762799</v>
       </c>
       <c r="E90">
-        <v>0.07825949608687736</v>
+        <v>-0.004141504648806148</v>
       </c>
       <c r="F90">
-        <v>0.04657355904969844</v>
+        <v>-0.04041880504623323</v>
       </c>
       <c r="G90">
-        <v>-0.03173992230149322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-9.820792494388963e-06</v>
+      </c>
+      <c r="H90">
+        <v>0.02126800965827932</v>
+      </c>
+      <c r="I90">
+        <v>-0.002886711855648727</v>
+      </c>
+      <c r="J90">
+        <v>0.08013582703147681</v>
+      </c>
+      <c r="K90">
+        <v>0.009260141833437851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02399131644256979</v>
+        <v>0.05395534417252296</v>
       </c>
       <c r="C91">
-        <v>0.07813547431044157</v>
+        <v>-0.07889812362407955</v>
       </c>
       <c r="D91">
-        <v>0.0667358033428239</v>
+        <v>0.0542283307459473</v>
       </c>
       <c r="E91">
-        <v>-0.06237091704600418</v>
+        <v>-0.04782149014323504</v>
       </c>
       <c r="F91">
-        <v>0.05466565193617821</v>
+        <v>0.04421376953130828</v>
       </c>
       <c r="G91">
-        <v>0.07488015884001359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08941642322157423</v>
+      </c>
+      <c r="H91">
+        <v>-0.03643259363451639</v>
+      </c>
+      <c r="I91">
+        <v>-0.02515464969392767</v>
+      </c>
+      <c r="J91">
+        <v>0.01589254919610802</v>
+      </c>
+      <c r="K91">
+        <v>-0.07241040827260625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3838585450151314</v>
+        <v>0.3514855466151273</v>
       </c>
       <c r="C92">
-        <v>-0.05837148417880161</v>
+        <v>0.121094993440124</v>
       </c>
       <c r="D92">
-        <v>-0.0169635916005311</v>
+        <v>-0.05438469618214645</v>
       </c>
       <c r="E92">
-        <v>-0.01754861123146207</v>
+        <v>0.04941196794147877</v>
       </c>
       <c r="F92">
-        <v>-0.1202667347733497</v>
+        <v>-0.04773784169366409</v>
       </c>
       <c r="G92">
-        <v>0.0145642291822403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01152462753350573</v>
+      </c>
+      <c r="H92">
+        <v>0.05645918634945492</v>
+      </c>
+      <c r="I92">
+        <v>-0.03749761835296889</v>
+      </c>
+      <c r="J92">
+        <v>0.1487421583818714</v>
+      </c>
+      <c r="K92">
+        <v>-0.006107818238369938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3067737075291323</v>
+        <v>0.3097388564377122</v>
       </c>
       <c r="C93">
-        <v>-0.06946870435302928</v>
+        <v>0.1146797174794215</v>
       </c>
       <c r="D93">
-        <v>0.009923520807546412</v>
+        <v>-0.01060002925047754</v>
       </c>
       <c r="E93">
-        <v>0.06758013596768311</v>
+        <v>0.009999561188590602</v>
       </c>
       <c r="F93">
-        <v>-0.03673346423415957</v>
+        <v>-0.04402103422843919</v>
       </c>
       <c r="G93">
-        <v>0.006928508519359228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03136213821234386</v>
+      </c>
+      <c r="H93">
+        <v>0.04297051602387131</v>
+      </c>
+      <c r="I93">
+        <v>0.01371497655417702</v>
+      </c>
+      <c r="J93">
+        <v>0.1047718104994061</v>
+      </c>
+      <c r="K93">
+        <v>0.01649370427205047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03530060021928332</v>
+        <v>0.07943698486823252</v>
       </c>
       <c r="C94">
-        <v>0.1897717169560336</v>
+        <v>-0.1621578028332989</v>
       </c>
       <c r="D94">
-        <v>0.147202609846498</v>
+        <v>0.115092062401725</v>
       </c>
       <c r="E94">
-        <v>-0.189208944466066</v>
+        <v>-0.04426143274150669</v>
       </c>
       <c r="F94">
-        <v>0.02530763283297131</v>
+        <v>0.1439148735979902</v>
       </c>
       <c r="G94">
-        <v>0.5900756282120162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5688892322608784</v>
+      </c>
+      <c r="H94">
+        <v>-0.124831746949481</v>
+      </c>
+      <c r="I94">
+        <v>0.06417444160789018</v>
+      </c>
+      <c r="J94">
+        <v>-0.04419767304424865</v>
+      </c>
+      <c r="K94">
+        <v>-0.2767308208078825</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02301782493281015</v>
+        <v>0.04042804176112685</v>
       </c>
       <c r="C95">
-        <v>0.09806342487174051</v>
+        <v>-0.1275131157043977</v>
       </c>
       <c r="D95">
-        <v>0.046874873695298</v>
+        <v>0.06535082880661561</v>
       </c>
       <c r="E95">
-        <v>-0.04002747965638976</v>
+        <v>0.0133842073673402</v>
       </c>
       <c r="F95">
-        <v>0.0921278325672213</v>
+        <v>0.07312991354463161</v>
       </c>
       <c r="G95">
-        <v>-0.06863756467034313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0438830652572697</v>
+      </c>
+      <c r="H95">
+        <v>0.0302242836173818</v>
+      </c>
+      <c r="I95">
+        <v>-0.09012610977549718</v>
+      </c>
+      <c r="J95">
+        <v>-0.1783239456876872</v>
+      </c>
+      <c r="K95">
+        <v>-0.2584485612387096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0001579557488328182</v>
+        <v>0.01628768789799562</v>
       </c>
       <c r="C97">
-        <v>-9.087830932177289e-05</v>
+        <v>-0.01607003097795818</v>
       </c>
       <c r="D97">
-        <v>-0.0003087233378429155</v>
+        <v>-0.006418412450820688</v>
       </c>
       <c r="E97">
-        <v>-0.004845589694487004</v>
+        <v>0.02739697138308598</v>
       </c>
       <c r="F97">
-        <v>-0.00195922303402534</v>
+        <v>0.007335379664054927</v>
       </c>
       <c r="G97">
-        <v>-0.003872303796242103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02830416974501224</v>
+      </c>
+      <c r="H97">
+        <v>0.083896720127206</v>
+      </c>
+      <c r="I97">
+        <v>0.1141317508465825</v>
+      </c>
+      <c r="J97">
+        <v>-0.02577873408778999</v>
+      </c>
+      <c r="K97">
+        <v>-0.05447736892452017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07613253700311765</v>
+        <v>0.1337093368474054</v>
       </c>
       <c r="C98">
-        <v>0.1395603541910793</v>
+        <v>-0.161559187349243</v>
       </c>
       <c r="D98">
-        <v>0.1378497713955898</v>
+        <v>0.09251735004818981</v>
       </c>
       <c r="E98">
-        <v>-0.1086844927716885</v>
+        <v>-0.05964048210842262</v>
       </c>
       <c r="F98">
-        <v>0.1473621989356423</v>
+        <v>0.2270662826823691</v>
       </c>
       <c r="G98">
-        <v>-0.1996256685006058</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2636498529165744</v>
+      </c>
+      <c r="H98">
+        <v>-0.3376663444658603</v>
+      </c>
+      <c r="I98">
+        <v>0.1568801358321339</v>
+      </c>
+      <c r="J98">
+        <v>0.1182847794466877</v>
+      </c>
+      <c r="K98">
+        <v>0.05044153562771305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02049596602694677</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05095472088423223</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01853294391845696</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005851236427552118</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.1248569741544259</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.002452147108724441</v>
+      </c>
+      <c r="H99">
+        <v>0.4512911542503336</v>
+      </c>
+      <c r="I99">
+        <v>0.822764781589493</v>
+      </c>
+      <c r="J99">
+        <v>-0.07836917317540865</v>
+      </c>
+      <c r="K99">
+        <v>-0.08418838854455629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007091922551538578</v>
+        <v>0.01538872173950635</v>
       </c>
       <c r="C101">
-        <v>0.07741260934994507</v>
+        <v>-0.08192058333689201</v>
       </c>
       <c r="D101">
-        <v>0.04677673485041701</v>
+        <v>0.04946649118843578</v>
       </c>
       <c r="E101">
-        <v>0.01440710535210148</v>
+        <v>-0.04657348216989526</v>
       </c>
       <c r="F101">
-        <v>0.03327296586398399</v>
+        <v>-0.01479280651743598</v>
       </c>
       <c r="G101">
-        <v>-0.1179538876936323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.162453275551808</v>
+      </c>
+      <c r="H101">
+        <v>0.227680741882026</v>
+      </c>
+      <c r="I101">
+        <v>-0.1394937052122977</v>
+      </c>
+      <c r="J101">
+        <v>0.007648276504001609</v>
+      </c>
+      <c r="K101">
+        <v>-0.1959367301925485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004120887719613492</v>
+        <v>0.001972493825728155</v>
       </c>
       <c r="C102">
-        <v>0.01802444243902691</v>
+        <v>-0.00716922430000678</v>
       </c>
       <c r="D102">
-        <v>0.002289214913569203</v>
+        <v>-0.001272949762947107</v>
       </c>
       <c r="E102">
-        <v>-0.02433371573318791</v>
+        <v>-0.002553622880266928</v>
       </c>
       <c r="F102">
-        <v>0.02025025386183536</v>
+        <v>0.007034688613340855</v>
       </c>
       <c r="G102">
-        <v>0.009324004495415816</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.004055415896863086</v>
+      </c>
+      <c r="H102">
+        <v>0.001322011593166689</v>
+      </c>
+      <c r="I102">
+        <v>-0.004390257370492705</v>
+      </c>
+      <c r="J102">
+        <v>-0.0103437322408819</v>
+      </c>
+      <c r="K102">
+        <v>0.002516676872846317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
